--- a/resources/Locators.xlsx
+++ b/resources/Locators.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IntellJ\Resources\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E534C992-367D-4D6F-AB88-ADB2DF5D446B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,472 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+  <si>
+    <t>Website :</t>
+  </si>
+  <si>
+    <t>https://the-internet.herokuapp.com/</t>
+  </si>
+  <si>
+    <t>Available Examples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elements </t>
+  </si>
+  <si>
+    <t>Locators</t>
+  </si>
+  <si>
+    <t>1.  A/B Testing</t>
+  </si>
+  <si>
+    <t>1. //h3['A/B Test Control']</t>
+  </si>
+  <si>
+    <t>1. Heading</t>
+  </si>
+  <si>
+    <t>2. //div[@class='example']/h3['test control']</t>
+  </si>
+  <si>
+    <t>2. Paragraph</t>
+  </si>
+  <si>
+    <t>1. //p['also known as split testing']</t>
+  </si>
+  <si>
+    <t>2. //div[@class='example']/p['also knwon as split testing']</t>
+  </si>
+  <si>
+    <t>2. Add/Remove
+ Elements</t>
+  </si>
+  <si>
+    <t>1. Add Element</t>
+  </si>
+  <si>
+    <t>1. //button[@onClick = 'addElement()']</t>
+  </si>
+  <si>
+    <t>2. //div[@class = 'example']/button[@onClick='addElement()']</t>
+  </si>
+  <si>
+    <t>3. //div[@class = 'example']/button[1]</t>
+  </si>
+  <si>
+    <t>4. button[onClick = "addElement()"]</t>
+  </si>
+  <si>
+    <t>2. Elemental Selenium (link)</t>
+  </si>
+  <si>
+    <t>1. //a[@href = 'http://elementalselenium.com/']</t>
+  </si>
+  <si>
+    <t>2. //a[@target = '_blank']</t>
+  </si>
+  <si>
+    <t>3. //div[@style]/a[@target = '_blank']</t>
+  </si>
+  <si>
+    <t>3. Broken Images</t>
+  </si>
+  <si>
+    <t>1. Image 1</t>
+  </si>
+  <si>
+    <t>1. //img[@src = 'asdf.jpg']</t>
+  </si>
+  <si>
+    <t>3. img[src = 'asdf.jpg']</t>
+  </si>
+  <si>
+    <t>2. //img[@src = 'hjkl.jpg']//preceding-sibling::img</t>
+  </si>
+  <si>
+    <t>4. //div[@class = 'example']/img[@src = 'asdf.jpg']</t>
+  </si>
+  <si>
+    <t>2. Image 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. //img[@src = 'hjkl.jpg']  </t>
+  </si>
+  <si>
+    <t>2. img[src = 'hjkl.jpg']</t>
+  </si>
+  <si>
+    <t>3. //div[@class = 'example']/img[@src = 'hjkl.jpg']</t>
+  </si>
+  <si>
+    <t>4. //img[@src = 'asdf.jpg']//following-sibling::img[1]</t>
+  </si>
+  <si>
+    <t>5. //img[@src = 'img/avatar-blank.jpg']//preceding-sibling::img[1]</t>
+  </si>
+  <si>
+    <t>5. //img[@src = 'img/avatar-blank.jpg']//preceding-sibling::img[2]</t>
+  </si>
+  <si>
+    <t>3. Image 3</t>
+  </si>
+  <si>
+    <t>1. //img[@src = 'img/avatar-blank.jpg']</t>
+  </si>
+  <si>
+    <t>2. img[src = 'img/avatar-blank.jpg']</t>
+  </si>
+  <si>
+    <t>3. //img[@src = 'hjkl.jpg']//following-sibling::img</t>
+  </si>
+  <si>
+    <t>4. //img[@src = 'asdf.jpg']//following-sibling::img[2]</t>
+  </si>
+  <si>
+    <t>5. //div[@class = 'example']/img[@src = 'img/avatar-blank.jpg']</t>
+  </si>
+  <si>
+    <t>4. Challenging DOM</t>
+  </si>
+  <si>
+    <t>1. qux (button)</t>
+  </si>
+  <si>
+    <t>1. #ad6a7190-526e-0139-060a-3a96d5e4c2ea</t>
+  </si>
+  <si>
+    <t>2. a[id = 'ad6a7190-526e-0139-060a-3a96d5e4c2ea']</t>
+  </si>
+  <si>
+    <t>3. //div[@class = 'large-12 columns large-centered']/div/a[1]</t>
+  </si>
+  <si>
+    <t>4. //div[@class = 'large-12 columns large-centered']/div/a[@id = 'ad6a7190-526e-0139-060a-3a96d5e4c2ea']</t>
+  </si>
+  <si>
+    <t>5. //a[@id = 'ad7a73c0-526e-0139-060b-3a96d5e4c2ea']//preceding-sibling::a</t>
+  </si>
+  <si>
+    <t>2. bar (button)</t>
+  </si>
+  <si>
+    <t>1. #ad7a73c0-526e-0139-060b-3a96d5e4c2ea</t>
+  </si>
+  <si>
+    <t>2. a[id = 'ad7a73c0-526e-0139-060b-3a96d5e4c2ea']</t>
+  </si>
+  <si>
+    <t>3. //div[@class = 'large-12 columns large-centered']/div/a[2]</t>
+  </si>
+  <si>
+    <t>4.  //div[@class = 'large-12 columns large-centered']/div/a[@id = 'ad7a73c0-526e-0139-060b-3a96d5e4c2ea']</t>
+  </si>
+  <si>
+    <t>5. //a[@id = 'ad849e40-526e-0139-060c-3a96d5e4c2ea']//preceding-sibling::a[1]</t>
+  </si>
+  <si>
+    <t>6. //a[@id = 'ad6a7190-526e-0139-060a-3a96d5e4c2ea']//following-sibling::a[1]</t>
+  </si>
+  <si>
+    <t>3. bar (button)</t>
+  </si>
+  <si>
+    <t>1. #ad849e40-526e-0139-060c-3a96d5e4c2ea</t>
+  </si>
+  <si>
+    <t>2. a[id = 'ad849e40-526e-0139-060c-3a96d5e4c2ea']</t>
+  </si>
+  <si>
+    <t>3. //div[@class = 'large-12 columns large-centered']/div/a[3]</t>
+  </si>
+  <si>
+    <t>4. //div[@class = 'large-12 columns large-centered']/div/a[@id = 'ad849e40-526e-0139-060c-3a96d5e4c2ea']</t>
+  </si>
+  <si>
+    <t>5. //a[@id = 'ad6a7190-526e-0139-060a-3a96d5e4c2ea']//following-sibling::a[2]</t>
+  </si>
+  <si>
+    <t>4. Table</t>
+  </si>
+  <si>
+    <t>2. //div[2][@class = 'large-10 columns']</t>
+  </si>
+  <si>
+    <t>1. //table</t>
+  </si>
+  <si>
+    <t>5. CheckBoxes</t>
+  </si>
+  <si>
+    <t>1. CheckBox 1</t>
+  </si>
+  <si>
+    <t>1. //input[1][@type = 'checkbox']</t>
+  </si>
+  <si>
+    <t>2. //input[2][@type = 'checkbox']//preceding-sibling::input</t>
+  </si>
+  <si>
+    <t>3. //form/input[1]</t>
+  </si>
+  <si>
+    <t>4. //form/input[1][@type = 'checkbox']</t>
+  </si>
+  <si>
+    <t>2. CheckBox 2</t>
+  </si>
+  <si>
+    <t>1. //input[2][@type = 'checkbox']</t>
+  </si>
+  <si>
+    <t>3. //form/input[2]</t>
+  </si>
+  <si>
+    <t>4. //form/input[2][@type = 'checkbox']</t>
+  </si>
+  <si>
+    <t>2. //input[1][@type = 'checkbox']//following-sibling::input</t>
+  </si>
+  <si>
+    <t>6. Context Menu</t>
+  </si>
+  <si>
+    <t>1. #hot-spot</t>
+  </si>
+  <si>
+    <t>2. div[id = 'hot-spot']</t>
+  </si>
+  <si>
+    <t>3. //div[@id = 'hot-spot']</t>
+  </si>
+  <si>
+    <t>4. //div[1][@id = 'hot-spot']</t>
+  </si>
+  <si>
+    <t>1. Hot-Spot  (box)</t>
+  </si>
+  <si>
+    <t>7.Disappearing Elements</t>
+  </si>
+  <si>
+    <t>1. Home</t>
+  </si>
+  <si>
+    <t>1. //a[@href = '/']</t>
+  </si>
+  <si>
+    <t>2. //ul/li/a[@href = '/']</t>
+  </si>
+  <si>
+    <t>2. About</t>
+  </si>
+  <si>
+    <t>1. //a[@href = '/about/']</t>
+  </si>
+  <si>
+    <t>2. //ul/li/a[@href = '/about/']</t>
+  </si>
+  <si>
+    <t>3. Contact-us</t>
+  </si>
+  <si>
+    <t>1. //a[@href = '/contact-us/']</t>
+  </si>
+  <si>
+    <t>2. //ul/li/a[@href = '/contact-us/']</t>
+  </si>
+  <si>
+    <t>4. Portfolio</t>
+  </si>
+  <si>
+    <t>2. //ul/li/a[@href = '/portfolio/']</t>
+  </si>
+  <si>
+    <t>1. //a[@href = '/portfolio/']</t>
+  </si>
+  <si>
+    <t>8. Drag and Drop</t>
+  </si>
+  <si>
+    <t>1. Column-a</t>
+  </si>
+  <si>
+    <t>1. #column-a</t>
+  </si>
+  <si>
+    <t>2. div[id = column-a]</t>
+  </si>
+  <si>
+    <t>3. //div[@id = 'column-a']</t>
+  </si>
+  <si>
+    <t>4. //div[@id = 'columns']/div[@id = 'column-a']</t>
+  </si>
+  <si>
+    <t>5. //div[@id = 'column-b']//preceding-sibling::div</t>
+  </si>
+  <si>
+    <t>2. Column-b</t>
+  </si>
+  <si>
+    <t>1. #column-b</t>
+  </si>
+  <si>
+    <t>2. div[id = column-b]</t>
+  </si>
+  <si>
+    <t>3. //div[@id = 'column-b']</t>
+  </si>
+  <si>
+    <t>5. //div[@id = 'column-a']//following-sibling::div</t>
+  </si>
+  <si>
+    <t>4. //div[@id = 'columns']/div[@id = 'column-b']</t>
+  </si>
+  <si>
+    <t>9. DropdownList</t>
+  </si>
+  <si>
+    <t>1. please select an option</t>
+  </si>
+  <si>
+    <t>1. select[id= dropdown]</t>
+  </si>
+  <si>
+    <t>2. //select[@id= 'dropdown']</t>
+  </si>
+  <si>
+    <t>3. //div[@class = 'example']/select[@id= 'dropdown']</t>
+  </si>
+  <si>
+    <t>10. Dynamic content</t>
+  </si>
+  <si>
+    <t>1. //p[2]/code</t>
+  </si>
+  <si>
+    <t>1. ?with_content=static</t>
+  </si>
+  <si>
+    <t>2. click here (link)</t>
+  </si>
+  <si>
+    <t>1. //a[@href = '/dynamic_content?with_content=static']</t>
+  </si>
+  <si>
+    <t>2. //p[2]/a[@href = '/dynamic_content?with_content=static']</t>
+  </si>
+  <si>
+    <t>3. image 1</t>
+  </si>
+  <si>
+    <t>1. //div[@id = 'content']/div[1][@class = 'row']/div[@class='large-2 columns']/img[@src = '/img/avatars/Original-Facebook-Geek-Profile-Avatar-6.jpg']</t>
+  </si>
+  <si>
+    <t>4. image 2</t>
+  </si>
+  <si>
+    <t>1. //div[@id = 'content']/div[@class = 'row']/div[@class='large-2 columns']/img[@src = '/img/avatars/Original-Facebook-Geek-Profile-Avatar-1.jpg']</t>
+  </si>
+  <si>
+    <t>5. image 3</t>
+  </si>
+  <si>
+    <t>11. Dynamic Controls</t>
+  </si>
+  <si>
+    <t>1. Remove/Add</t>
+  </si>
+  <si>
+    <t>1. //h4[2][@class = 'subheader']</t>
+  </si>
+  <si>
+    <t>2. //h4[1]//following-sibling::h4[1]</t>
+  </si>
+  <si>
+    <t>3. //h4[3]//preceding-sibling::h4[1]</t>
+  </si>
+  <si>
+    <t>2. Check Box</t>
+  </si>
+  <si>
+    <t>1. div[id = 'checkbox']</t>
+  </si>
+  <si>
+    <t>2. //div[@id = 'checkbox']</t>
+  </si>
+  <si>
+    <t>3. //form/div[@id = 'checkbox']</t>
+  </si>
+  <si>
+    <t>3. Enable/Disable</t>
+  </si>
+  <si>
+    <t>1. //h4[@class = 'subheader'][2]</t>
+  </si>
+  <si>
+    <t>2. //h4[1]//following-sibling::h4[2]</t>
+  </si>
+  <si>
+    <t>3. //h4[1]//following-sibling::h4[2]</t>
+  </si>
+  <si>
+    <t>4. input</t>
+  </si>
+  <si>
+    <t>1. //input[@type = 'text']</t>
+  </si>
+  <si>
+    <t>2. input[type = 'text']</t>
+  </si>
+  <si>
+    <t>3. //form/input[@type = 'text']</t>
+  </si>
+  <si>
+    <t>5. Remove (button)</t>
+  </si>
+  <si>
+    <t>1. //button[@onclick = 'swapCheckbox()']</t>
+  </si>
+  <si>
+    <t>6. Enable (button)</t>
+  </si>
+  <si>
+    <t>1. //button[@onclick = 'swapInput()']</t>
+  </si>
+  <si>
+    <t>2. //form[@id = 'input-example']/button[@type = 'button']</t>
+  </si>
+  <si>
+    <t>2. //form[@id = 'checkbox-example']/button[@type = 'button']</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +512,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +808,665 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="113.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>132</v>
+      </c>
+      <c r="C126" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>140</v>
+      </c>
+      <c r="C134" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>142</v>
+      </c>
+      <c r="C137" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{CA1991A4-6D80-4B86-B026-E36A07C18DBC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/resources/Locators.xlsx
+++ b/resources/Locators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IntellJ\Resources\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E534C992-367D-4D6F-AB88-ADB2DF5D446B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71643393-A5C9-4228-A23C-07AF0B8AD74F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>Website :</t>
   </si>
@@ -464,6 +464,195 @@
   </si>
   <si>
     <t>2. //form[@id = 'checkbox-example']/button[@type = 'button']</t>
+  </si>
+  <si>
+    <t>12. File Downloader</t>
+  </si>
+  <si>
+    <t>1. text-sample2.txt</t>
+  </si>
+  <si>
+    <t>1. //a[@href='download/text-sample2.txt']</t>
+  </si>
+  <si>
+    <t>2. //div/a[@href='download/text-sample2.txt']</t>
+  </si>
+  <si>
+    <t>3. //a[@href='download/Picture.png']//preceding-sibling::a[1]</t>
+  </si>
+  <si>
+    <t>2. 5ed49a0c5e7ac4e7d72de4e92abbfcd0.jpg</t>
+  </si>
+  <si>
+    <t>1. //a[@href='download/5ed49a0c5e7ac4e7d72de4e92abbfcd0.jpg']</t>
+  </si>
+  <si>
+    <t>2. //div/a[@href='download/5ed49a0c5e7ac4e7d72de4e92abbfcd0.jpg']</t>
+  </si>
+  <si>
+    <t>3. //div/a[@href="download/text-sample2.txt"]//following-sibling::a[1]</t>
+  </si>
+  <si>
+    <t>3. Picture.png</t>
+  </si>
+  <si>
+    <t>1. href="download/Picture.png"</t>
+  </si>
+  <si>
+    <t>2. //div/a[@href='download/Picture.png']</t>
+  </si>
+  <si>
+    <t>3. //div/a[@href='download/pic.jpg']//preceding-sibling::a[1]</t>
+  </si>
+  <si>
+    <t>4. pic.jpg</t>
+  </si>
+  <si>
+    <t>1. //a[@href = 'download/pic.jpg']</t>
+  </si>
+  <si>
+    <t>2. //div/a[@href = 'download/pic.jpg']</t>
+  </si>
+  <si>
+    <t>3. //div/a[@href = 'download/Picture.png']//following-sibling::a[1]</t>
+  </si>
+  <si>
+    <t>13. File Uploader</t>
+  </si>
+  <si>
+    <t>1. choose file</t>
+  </si>
+  <si>
+    <t>1. #file-upload</t>
+  </si>
+  <si>
+    <t>2. input[id = file-upload]</t>
+  </si>
+  <si>
+    <t>3. //input[@id = 'file-upload']</t>
+  </si>
+  <si>
+    <t>4. //form[@method = 'POST']/input[@id = 'file-upload']</t>
+  </si>
+  <si>
+    <t>2. upload (button)</t>
+  </si>
+  <si>
+    <t>1. #file-submit</t>
+  </si>
+  <si>
+    <t>2. input[id = file-submit]</t>
+  </si>
+  <si>
+    <t>3. //input[@id = 'file-submit']</t>
+  </si>
+  <si>
+    <t>4. //form[@method = 'POST']/input[@id = 'file-submit']</t>
+  </si>
+  <si>
+    <t>3. dotted box</t>
+  </si>
+  <si>
+    <t>1. div[id=drag-drop-upload]</t>
+  </si>
+  <si>
+    <t>2. //div[@id='drag-drop-upload']</t>
+  </si>
+  <si>
+    <t>14. Floating Menu</t>
+  </si>
+  <si>
+    <t>1. Home (link)</t>
+  </si>
+  <si>
+    <t>1. //a[@href='#home']</t>
+  </si>
+  <si>
+    <t>2. //div/ul/li/a[@href='#home']</t>
+  </si>
+  <si>
+    <t>3. #home</t>
+  </si>
+  <si>
+    <t>4. a[href = '#home']</t>
+  </si>
+  <si>
+    <t>2. News (link)</t>
+  </si>
+  <si>
+    <t>1. #news</t>
+  </si>
+  <si>
+    <t>2. a[href = '#news']</t>
+  </si>
+  <si>
+    <t>4. //div/ul/li/a[@href='#news']</t>
+  </si>
+  <si>
+    <t>3. //a[@href = '#news']</t>
+  </si>
+  <si>
+    <t>3. Contact (link)</t>
+  </si>
+  <si>
+    <t>1. #contact</t>
+  </si>
+  <si>
+    <t>1. #about</t>
+  </si>
+  <si>
+    <t>4. About(link)</t>
+  </si>
+  <si>
+    <t>2. a[href = '#contact']</t>
+  </si>
+  <si>
+    <t>3. //a[@href = '#contact']</t>
+  </si>
+  <si>
+    <t>4. //div/ul/li/a[@href='#contact']</t>
+  </si>
+  <si>
+    <t>2. a[href = '#about']</t>
+  </si>
+  <si>
+    <t>3. //a[@href = '#about']</t>
+  </si>
+  <si>
+    <t>4. //div/ul/li/a[@href='#about']</t>
+  </si>
+  <si>
+    <t>15. Forgot Password</t>
+  </si>
+  <si>
+    <t>1. Email Input</t>
+  </si>
+  <si>
+    <t>1. #email</t>
+  </si>
+  <si>
+    <t>2. input[id = email]</t>
+  </si>
+  <si>
+    <t>3. //input[@id = 'email']</t>
+  </si>
+  <si>
+    <t>4. //div[@class='large-6 small-12 columns']/input[@id = 'email']</t>
+  </si>
+  <si>
+    <t>2. Retrieve password (button)</t>
+  </si>
+  <si>
+    <t>1. #form_submit</t>
+  </si>
+  <si>
+    <t>2. button[id = form_submit]</t>
+  </si>
+  <si>
+    <t>3. //button[@id = 'form_submit']</t>
+  </si>
+  <si>
+    <t>4. //div//button[@id = 'form_submit']</t>
   </si>
 </sst>
 </file>
@@ -809,16 +998,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
     <col min="3" max="3" width="113.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1418,7 +1607,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>136</v>
       </c>
@@ -1426,17 +1615,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>140</v>
       </c>
@@ -1444,12 +1633,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>142</v>
       </c>
@@ -1457,9 +1646,290 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140" t="s">
+        <v>147</v>
+      </c>
+      <c r="C140" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>155</v>
+      </c>
+      <c r="C148" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>163</v>
+      </c>
+      <c r="B156" t="s">
+        <v>164</v>
+      </c>
+      <c r="C156" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>169</v>
+      </c>
+      <c r="C161" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>174</v>
+      </c>
+      <c r="C166" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169" t="s">
+        <v>178</v>
+      </c>
+      <c r="C169" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>183</v>
+      </c>
+      <c r="C174" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>188</v>
+      </c>
+      <c r="C179" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>191</v>
+      </c>
+      <c r="C184" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>198</v>
+      </c>
+      <c r="B189" t="s">
+        <v>199</v>
+      </c>
+      <c r="C189" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>204</v>
+      </c>
+      <c r="C194" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
